--- a/ggh-growth/ggh-growth-summary.xlsx
+++ b/ggh-growth/ggh-growth-summary.xlsx
@@ -5,11 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Population &amp; Households by Regi" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Dwelling Types" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Growth Population &amp; Households " sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Growth by Dwelling Types" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="50">
   <si>
     <t xml:space="preserve">Population</t>
   </si>
@@ -71,9 +71,6 @@
     <t xml:space="preserve">GTHA SubTotal</t>
   </si>
   <si>
-    <t xml:space="preserve">Total Inner Ring</t>
-  </si>
-  <si>
     <t xml:space="preserve">Outer Ring</t>
   </si>
   <si>
@@ -120,9 +117,6 @@
   </si>
   <si>
     <t xml:space="preserve">Outer Ring SubTotal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Outer Ring</t>
   </si>
   <si>
     <t xml:space="preserve">Grand Total</t>
@@ -492,11 +486,11 @@
   </sheetPr>
   <dimension ref="B1:AMJ26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.93"/>
@@ -768,9 +762,7 @@
       <c r="B10" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="19" t="s">
-        <v>16</v>
-      </c>
+      <c r="C10" s="19"/>
       <c r="D10" s="20" t="n">
         <v>1235132</v>
       </c>
@@ -798,10 +790,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>18</v>
       </c>
       <c r="D11" s="15" t="n">
         <v>14496</v>
@@ -830,10 +822,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" s="15" t="n">
         <v>28797</v>
@@ -862,10 +854,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" s="15" t="n">
         <v>4686</v>
@@ -894,10 +886,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" s="15" t="n">
         <v>3466</v>
@@ -926,10 +918,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" s="15" t="n">
         <v>8753</v>
@@ -958,10 +950,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D16" s="15" t="n">
         <v>5059</v>
@@ -990,10 +982,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17" s="15" t="n">
         <v>11821</v>
@@ -1022,10 +1014,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" s="15" t="n">
         <v>4004</v>
@@ -1054,10 +1046,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" s="15" t="n">
         <v>8564</v>
@@ -1086,10 +1078,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" s="15" t="n">
         <v>6331</v>
@@ -1118,10 +1110,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21" s="15" t="n">
         <v>89420</v>
@@ -1150,10 +1142,10 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D22" s="15" t="n">
         <v>11804</v>
@@ -1182,10 +1174,10 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D23" s="15" t="n">
         <v>50520</v>
@@ -1214,10 +1206,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D24" s="15" t="n">
         <v>110614</v>
@@ -1246,11 +1238,9 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>33</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C25" s="19"/>
       <c r="D25" s="20" t="n">
         <v>378391</v>
       </c>
@@ -1278,10 +1268,10 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D26" s="25" t="n">
         <v>1613523</v>
@@ -1330,11 +1320,11 @@
   </sheetPr>
   <dimension ref="B1:J23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.65"/>
@@ -1355,12 +1345,12 @@
         <v>6</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C2" s="29" t="n">
         <v>689015</v>
@@ -1377,7 +1367,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>252745</v>
@@ -1394,7 +1384,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>32040</v>
@@ -1411,7 +1401,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>103205</v>
@@ -1428,7 +1418,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>17960</v>
@@ -1445,7 +1435,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>33860</v>
@@ -1462,7 +1452,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>243780</v>
@@ -1479,7 +1469,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="28" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="23.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1487,28 +1477,28 @@
         <v>4</v>
       </c>
       <c r="D14" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="G14" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="H14" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="30" t="s">
+      <c r="I14" s="30" t="s">
         <v>48</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="I14" s="30" t="s">
-        <v>50</v>
       </c>
       <c r="J14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C15" s="31" t="n">
         <v>689015</v>
@@ -1540,7 +1530,7 @@
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D16" s="33" t="n">
         <v>1</v>
@@ -1563,7 +1553,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D17" s="34" t="n">
         <f aca="false">(C3*D3/100) / D$15</f>
@@ -1592,7 +1582,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D18" s="34" t="n">
         <f aca="false">(C4*D4/100) / D$15</f>
@@ -1621,7 +1611,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D19" s="34" t="n">
         <f aca="false">(C5*D5/100) / D$15</f>
@@ -1650,7 +1640,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D20" s="34" t="n">
         <f aca="false">(C6*D6/100) / D$15</f>
@@ -1679,7 +1669,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D21" s="34" t="n">
         <f aca="false">(C7*D7/100) / D$15</f>
@@ -1708,7 +1698,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D22" s="34" t="n">
         <f aca="false">(C8*D8/100) / D$15</f>
@@ -1737,7 +1727,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="28" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D23" s="33" t="n">
         <f aca="false">D16-SUM(D17:D22)</f>

--- a/ggh-growth/ggh-growth-summary.xlsx
+++ b/ggh-growth/ggh-growth-summary.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Growth Population &amp; Households " sheetId="1" state="visible" r:id="rId2"/>
@@ -21,12 +21,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="52">
   <si>
     <t xml:space="preserve">Population</t>
   </si>
   <si>
     <t xml:space="preserve">Households</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dwellings</t>
   </si>
   <si>
     <t xml:space="preserve">Macro</t>
@@ -329,17 +332,29 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="44">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -354,7 +369,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -362,6 +377,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -374,18 +393,30 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -394,10 +425,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -422,14 +449,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -455,10 +486,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -501,80 +528,101 @@
   </sheetPr>
   <dimension ref="B1:AMJ27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D29" activeCellId="0" sqref="D29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="12.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="15.78"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="14" style="2" width="11.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="1"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-    </row>
-    <row r="3" s="8" customFormat="true" ht="28.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="9" t="s">
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+    </row>
+    <row r="3" s="12" customFormat="true" ht="28.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="D3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="E3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="F3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="12" t="s">
+      <c r="G3" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="I3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="J3" s="16" t="s">
         <v>7</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" s="20" t="s">
+        <v>8</v>
       </c>
       <c r="AMG3" s="0"/>
       <c r="AMH3" s="0"/>
@@ -582,773 +630,1069 @@
       <c r="AMJ3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="14" t="s">
-        <v>8</v>
+      <c r="B4" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="22" t="n">
+        <v>64794</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>43.62</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="H4" s="22" t="n">
+        <v>28290</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>56.48</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="K4" s="23" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="L4" s="22" t="n">
+        <v>28602</v>
+      </c>
+      <c r="M4" s="2" t="n">
+        <v>55.88</v>
+      </c>
+      <c r="N4" s="2" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="O4" s="23" t="n">
+        <v>6.88</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="15" t="n">
-        <v>66456</v>
-      </c>
-      <c r="E4" s="16" t="n">
-        <v>43.62</v>
-      </c>
-      <c r="F4" s="16" t="n">
+      <c r="C5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="22" t="n">
+        <v>291075</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>52.98</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>65.72</v>
+      </c>
+      <c r="H5" s="22" t="n">
+        <v>181465</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>52.44</v>
+      </c>
+      <c r="K5" s="23" t="n">
+        <v>62.15</v>
+      </c>
+      <c r="L5" s="22" t="n">
+        <v>212641</v>
+      </c>
+      <c r="M5" s="2" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="N5" s="2" t="n">
+        <v>55.15</v>
+      </c>
+      <c r="O5" s="23" t="n">
+        <v>64.57</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="22" t="n">
+        <v>135734</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>57.92</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="H6" s="22" t="n">
+        <v>48295</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>65.94</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="K6" s="23" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="L6" s="22" t="n">
+        <v>48404</v>
+      </c>
+      <c r="M6" s="2" t="n">
+        <v>65.99</v>
+      </c>
+      <c r="N6" s="2" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="O6" s="23" t="n">
         <v>3.24</v>
       </c>
-      <c r="G4" s="16" t="n">
-        <v>4.84</v>
-      </c>
-      <c r="H4" s="15" t="n">
-        <v>28805</v>
-      </c>
-      <c r="I4" s="16" t="n">
-        <v>56.48</v>
-      </c>
-      <c r="J4" s="16" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="K4" s="17" t="n">
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="15" t="n">
-        <v>301593</v>
-      </c>
-      <c r="E5" s="16" t="n">
-        <v>100</v>
-      </c>
-      <c r="F5" s="16" t="n">
-        <v>52.98</v>
-      </c>
-      <c r="G5" s="16" t="n">
-        <v>65.72</v>
-      </c>
-      <c r="H5" s="15" t="n">
-        <v>184980</v>
-      </c>
-      <c r="I5" s="16" t="n">
-        <v>100</v>
-      </c>
-      <c r="J5" s="16" t="n">
-        <v>52.44</v>
-      </c>
-      <c r="K5" s="17" t="n">
-        <v>62.15</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="15" t="n">
-        <v>135752</v>
-      </c>
-      <c r="E6" s="16" t="n">
-        <v>57.92</v>
-      </c>
-      <c r="F6" s="16" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G6" s="16" t="n">
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="22" t="n">
+        <v>157381</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>36.52</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="H7" s="22" t="n">
+        <v>51700</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>44.76</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="K7" s="23" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="L7" s="22" t="n">
+        <v>51976</v>
+      </c>
+      <c r="M7" s="2" t="n">
+        <v>43.51</v>
+      </c>
+      <c r="N7" s="2" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="O7" s="23" t="n">
+        <v>6.41</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="22" t="n">
+        <v>291617</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>39.49</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="H8" s="22" t="n">
+        <v>91670</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>53.4</v>
+      </c>
+      <c r="J8" s="2" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="K8" s="23" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="L8" s="22" t="n">
+        <v>94515</v>
+      </c>
+      <c r="M8" s="2" t="n">
+        <v>53.46</v>
+      </c>
+      <c r="N8" s="2" t="n">
+        <v>10.34</v>
+      </c>
+      <c r="O8" s="23" t="n">
+        <v>7.18</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="22" t="n">
+        <v>280975</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>27.57</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="H9" s="22" t="n">
+        <v>115530</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>43.71</v>
+      </c>
+      <c r="J9" s="2" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="K9" s="23" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="L9" s="22" t="n">
+        <v>119091</v>
+      </c>
+      <c r="M9" s="2" t="n">
+        <v>43.69</v>
+      </c>
+      <c r="N9" s="2" t="n">
         <v>1.96</v>
       </c>
-      <c r="H6" s="15" t="n">
-        <v>48390</v>
-      </c>
-      <c r="I6" s="16" t="n">
-        <v>65.94</v>
-      </c>
-      <c r="J6" s="16" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="K6" s="17" t="n">
-        <v>3.15</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="15" t="n">
-        <v>157381</v>
-      </c>
-      <c r="E7" s="16" t="n">
-        <v>36.52</v>
-      </c>
-      <c r="F7" s="16" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="G7" s="16" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="H7" s="15" t="n">
-        <v>51625</v>
-      </c>
-      <c r="I7" s="16" t="n">
-        <v>44.76</v>
-      </c>
-      <c r="J7" s="16" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="K7" s="17" t="n">
-        <v>6.24</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="15" t="n">
-        <v>292975</v>
-      </c>
-      <c r="E8" s="16" t="n">
-        <v>39.49</v>
-      </c>
-      <c r="F8" s="16" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="G8" s="16" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="H8" s="15" t="n">
-        <v>92090</v>
-      </c>
-      <c r="I8" s="16" t="n">
-        <v>53.4</v>
-      </c>
-      <c r="J8" s="16" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="K8" s="17" t="n">
-        <v>7.07</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="15" t="n">
-        <v>280975</v>
-      </c>
-      <c r="E9" s="16" t="n">
-        <v>27.57</v>
-      </c>
-      <c r="F9" s="16" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="G9" s="16" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="H9" s="15" t="n">
-        <v>115570</v>
-      </c>
-      <c r="I9" s="16" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="J9" s="16" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="K9" s="17" t="n">
-        <v>9.35</v>
+      <c r="O9" s="23" t="n">
+        <v>9.43</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="20" t="n">
-        <v>1235132</v>
-      </c>
-      <c r="E10" s="21" t="n">
+      <c r="B10" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="26" t="n">
+        <f aca="false">SUM(D4:D9)</f>
+        <v>1221576</v>
+      </c>
+      <c r="E10" s="27" t="n">
         <v>54.17</v>
       </c>
-      <c r="F10" s="21" t="n">
+      <c r="F10" s="27" t="n">
         <v>15.33</v>
       </c>
-      <c r="G10" s="21" t="n">
+      <c r="G10" s="27" t="n">
         <v>20.36</v>
       </c>
-      <c r="H10" s="20" t="n">
-        <v>521460</v>
-      </c>
-      <c r="I10" s="21" t="n">
+      <c r="H10" s="26" t="n">
+        <f aca="false">SUM(H4:H9)</f>
+        <v>516950</v>
+      </c>
+      <c r="I10" s="27" t="n">
         <v>68.7</v>
       </c>
-      <c r="J10" s="21" t="n">
+      <c r="J10" s="27" t="n">
         <v>21.61</v>
       </c>
-      <c r="K10" s="22" t="n">
+      <c r="K10" s="28" t="n">
         <v>26.62</v>
+      </c>
+      <c r="L10" s="26" t="n">
+        <f aca="false">SUM(L4:L9)</f>
+        <v>555229</v>
+      </c>
+      <c r="M10" s="29" t="n">
+        <v>70.07</v>
+      </c>
+      <c r="N10" s="29" t="n">
+        <v>24.09</v>
+      </c>
+      <c r="O10" s="28" t="n">
+        <v>29.4</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="23" t="n">
-        <v>20056</v>
-      </c>
-      <c r="E11" s="24" t="n">
+      <c r="C11" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="22" t="n">
+        <v>19399</v>
+      </c>
+      <c r="E11" s="30" t="n">
         <v>55.84</v>
       </c>
-      <c r="F11" s="24" t="n">
+      <c r="F11" s="30" t="n">
         <v>6.1</v>
       </c>
-      <c r="G11" s="24" t="n">
+      <c r="G11" s="30" t="n">
         <v>7.83</v>
       </c>
-      <c r="H11" s="23" t="n">
+      <c r="H11" s="31" t="n">
+        <v>8755</v>
+      </c>
+      <c r="I11" s="30" t="n">
+        <v>66.26</v>
+      </c>
+      <c r="J11" s="30" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="K11" s="32" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="L11" s="22" t="n">
         <v>9080</v>
       </c>
-      <c r="I11" s="24" t="n">
-        <v>66.26</v>
-      </c>
-      <c r="J11" s="24" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="K11" s="25" t="n">
-        <v>6.07</v>
+      <c r="M11" s="2" t="n">
+        <v>66.99</v>
+      </c>
+      <c r="N11" s="2" t="n">
+        <v>9.06</v>
+      </c>
+      <c r="O11" s="23" t="n">
+        <v>5.78</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="14" t="s">
-        <v>16</v>
+      <c r="B12" s="21" t="s">
+        <v>17</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="15" t="n">
+        <v>19</v>
+      </c>
+      <c r="D12" s="22" t="n">
         <v>14496</v>
       </c>
-      <c r="E12" s="16" t="n">
+      <c r="E12" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="F12" s="16" t="n">
+      <c r="F12" s="2" t="n">
         <v>4.26</v>
       </c>
-      <c r="G12" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="15" t="n">
-        <v>6085</v>
-      </c>
-      <c r="I12" s="16" t="n">
+      <c r="G12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="22" t="n">
+        <v>6065</v>
+      </c>
+      <c r="I12" s="2" t="n">
         <v>53.15</v>
       </c>
-      <c r="J12" s="16" t="n">
+      <c r="J12" s="2" t="n">
         <v>4.39</v>
       </c>
-      <c r="K12" s="17" t="n">
+      <c r="K12" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="22" t="n">
+        <v>6306</v>
+      </c>
+      <c r="M12" s="2" t="n">
+        <v>53.21</v>
+      </c>
+      <c r="N12" s="2" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="O12" s="23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="14" t="s">
-        <v>16</v>
+      <c r="B13" s="21" t="s">
+        <v>17</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="15" t="n">
+        <v>20</v>
+      </c>
+      <c r="D13" s="22" t="n">
         <v>28797</v>
       </c>
-      <c r="E13" s="16" t="n">
+      <c r="E13" s="2" t="n">
         <v>59.18</v>
       </c>
-      <c r="F13" s="16" t="n">
+      <c r="F13" s="2" t="n">
         <v>4.05</v>
       </c>
-      <c r="G13" s="16" t="n">
+      <c r="G13" s="2" t="n">
         <v>5.06</v>
       </c>
-      <c r="H13" s="15" t="n">
-        <v>11805</v>
-      </c>
-      <c r="I13" s="16" t="n">
+      <c r="H13" s="22" t="n">
+        <v>11810</v>
+      </c>
+      <c r="I13" s="2" t="n">
         <v>63.95</v>
       </c>
-      <c r="J13" s="16" t="n">
+      <c r="J13" s="2" t="n">
         <v>5.43</v>
       </c>
-      <c r="K13" s="17" t="n">
+      <c r="K13" s="23" t="n">
         <v>6.86</v>
       </c>
+      <c r="L13" s="22" t="n">
+        <v>11777</v>
+      </c>
+      <c r="M13" s="2" t="n">
+        <v>62.51</v>
+      </c>
+      <c r="N13" s="2" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="O13" s="23" t="n">
+        <v>5.87</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="14" t="s">
-        <v>16</v>
+      <c r="B14" s="21" t="s">
+        <v>17</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="15" t="n">
+        <v>21</v>
+      </c>
+      <c r="D14" s="22" t="n">
         <v>4686</v>
       </c>
-      <c r="E14" s="16" t="n">
+      <c r="E14" s="2" t="n">
         <v>36.46</v>
       </c>
-      <c r="F14" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="15" t="n">
-        <v>3235</v>
-      </c>
-      <c r="I14" s="16" t="n">
+      <c r="F14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="22" t="n">
+        <v>3210</v>
+      </c>
+      <c r="I14" s="2" t="n">
         <v>36.34</v>
       </c>
-      <c r="J14" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" s="17" t="n">
+      <c r="J14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="22" t="n">
+        <v>961</v>
+      </c>
+      <c r="M14" s="2" t="n">
+        <v>121.4</v>
+      </c>
+      <c r="N14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" s="23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="14" t="s">
-        <v>16</v>
+      <c r="B15" s="21" t="s">
+        <v>17</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="15" t="n">
-        <v>3466</v>
-      </c>
-      <c r="E15" s="16" t="n">
+        <v>22</v>
+      </c>
+      <c r="D15" s="22" t="n">
+        <v>3152</v>
+      </c>
+      <c r="E15" s="2" t="n">
         <v>28.06</v>
       </c>
-      <c r="F15" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="15" t="n">
-        <v>2160</v>
-      </c>
-      <c r="I15" s="16" t="n">
+      <c r="F15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="22" t="n">
+        <v>2170</v>
+      </c>
+      <c r="I15" s="2" t="n">
         <v>53.91</v>
       </c>
-      <c r="J15" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" s="17" t="n">
+      <c r="J15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="22" t="n">
+        <v>2415</v>
+      </c>
+      <c r="M15" s="2" t="n">
+        <v>55.61</v>
+      </c>
+      <c r="N15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" s="23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="14" t="s">
-        <v>16</v>
+      <c r="B16" s="21" t="s">
+        <v>17</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="15" t="n">
+        <v>23</v>
+      </c>
+      <c r="D16" s="22" t="n">
         <v>8753</v>
       </c>
-      <c r="E16" s="16" t="n">
+      <c r="E16" s="2" t="n">
         <v>43.61</v>
       </c>
-      <c r="F16" s="16" t="n">
+      <c r="F16" s="2" t="n">
         <v>0.53</v>
       </c>
-      <c r="G16" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="15" t="n">
-        <v>4795</v>
-      </c>
-      <c r="I16" s="16" t="n">
+      <c r="G16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="22" t="n">
+        <v>4775</v>
+      </c>
+      <c r="I16" s="2" t="n">
         <v>62.1</v>
       </c>
-      <c r="J16" s="16" t="n">
+      <c r="J16" s="2" t="n">
         <v>0.83</v>
       </c>
-      <c r="K16" s="17" t="n">
+      <c r="K16" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="22" t="n">
+        <v>4964</v>
+      </c>
+      <c r="M16" s="2" t="n">
+        <v>61.75</v>
+      </c>
+      <c r="N16" s="2" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="O16" s="23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="14" t="s">
-        <v>16</v>
+      <c r="B17" s="21" t="s">
+        <v>17</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="15" t="n">
+        <v>24</v>
+      </c>
+      <c r="D17" s="22" t="n">
         <v>5059</v>
       </c>
-      <c r="E17" s="16" t="n">
+      <c r="E17" s="2" t="n">
         <v>15.05</v>
       </c>
-      <c r="F17" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="15" t="n">
-        <v>2105</v>
-      </c>
-      <c r="I17" s="16" t="n">
+      <c r="F17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="22" t="n">
+        <v>2120</v>
+      </c>
+      <c r="I17" s="2" t="n">
         <v>23.68</v>
       </c>
-      <c r="J17" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" s="17" t="n">
+      <c r="J17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="22" t="n">
+        <v>2261</v>
+      </c>
+      <c r="M17" s="2" t="n">
+        <v>23.06</v>
+      </c>
+      <c r="N17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="14" t="s">
-        <v>16</v>
+      <c r="B18" s="21" t="s">
+        <v>17</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="15" t="n">
+        <v>25</v>
+      </c>
+      <c r="D18" s="22" t="n">
         <v>11821</v>
       </c>
-      <c r="E18" s="16" t="n">
+      <c r="E18" s="2" t="n">
         <v>33.72</v>
       </c>
-      <c r="F18" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="15" t="n">
-        <v>4545</v>
-      </c>
-      <c r="I18" s="16" t="n">
+      <c r="F18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="22" t="n">
+        <v>4520</v>
+      </c>
+      <c r="I18" s="2" t="n">
         <v>42.35</v>
       </c>
-      <c r="J18" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" s="17" t="n">
+      <c r="J18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" s="22" t="n">
+        <v>4634</v>
+      </c>
+      <c r="M18" s="2" t="n">
+        <v>42.99</v>
+      </c>
+      <c r="N18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" s="23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="14" t="s">
-        <v>16</v>
+      <c r="B19" s="21" t="s">
+        <v>17</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="15" t="n">
+        <v>26</v>
+      </c>
+      <c r="D19" s="22" t="n">
         <v>4004</v>
       </c>
-      <c r="E19" s="16" t="n">
+      <c r="E19" s="2" t="n">
         <v>18.58</v>
       </c>
-      <c r="F19" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="15" t="n">
-        <v>2435</v>
-      </c>
-      <c r="I19" s="16" t="n">
+      <c r="F19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="22" t="n">
+        <v>2415</v>
+      </c>
+      <c r="I19" s="2" t="n">
         <v>26.88</v>
       </c>
-      <c r="J19" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" s="17" t="n">
+      <c r="J19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" s="22" t="n">
+        <v>2324</v>
+      </c>
+      <c r="M19" s="2" t="n">
+        <v>29.76</v>
+      </c>
+      <c r="N19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" s="23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="14" t="s">
-        <v>16</v>
+      <c r="B20" s="21" t="s">
+        <v>17</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="15" t="n">
-        <v>8564</v>
-      </c>
-      <c r="E20" s="16" t="n">
+        <v>27</v>
+      </c>
+      <c r="D20" s="22" t="n">
+        <v>8402</v>
+      </c>
+      <c r="E20" s="2" t="n">
         <v>23.35</v>
       </c>
-      <c r="F20" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="15" t="n">
-        <v>5850</v>
-      </c>
-      <c r="I20" s="16" t="n">
+      <c r="F20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="22" t="n">
+        <v>5780</v>
+      </c>
+      <c r="I20" s="2" t="n">
         <v>36.93</v>
       </c>
-      <c r="J20" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" s="17" t="n">
+      <c r="J20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" s="22" t="n">
+        <v>5569</v>
+      </c>
+      <c r="M20" s="2" t="n">
+        <v>39.34</v>
+      </c>
+      <c r="N20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" s="23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="14" t="s">
-        <v>16</v>
+      <c r="B21" s="21" t="s">
+        <v>17</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="15" t="n">
+        <v>28</v>
+      </c>
+      <c r="D21" s="22" t="n">
         <v>6331</v>
       </c>
-      <c r="E21" s="16" t="n">
+      <c r="E21" s="2" t="n">
         <v>3.85</v>
       </c>
-      <c r="F21" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="15" t="n">
-        <v>3575</v>
-      </c>
-      <c r="I21" s="16" t="n">
+      <c r="F21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="22" t="n">
+        <v>3570</v>
+      </c>
+      <c r="I21" s="2" t="n">
         <v>4.34</v>
       </c>
-      <c r="J21" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" s="17" t="n">
+      <c r="J21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" s="22" t="n">
+        <v>995</v>
+      </c>
+      <c r="M21" s="2" t="n">
+        <v>17.28</v>
+      </c>
+      <c r="N21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" s="23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="14" t="s">
-        <v>16</v>
+      <c r="B22" s="21" t="s">
+        <v>17</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="15" t="n">
-        <v>89420</v>
-      </c>
-      <c r="E22" s="16" t="n">
+        <v>29</v>
+      </c>
+      <c r="D22" s="22" t="n">
+        <v>88451</v>
+      </c>
+      <c r="E22" s="2" t="n">
         <v>24.92</v>
       </c>
-      <c r="F22" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="16" t="n">
+      <c r="F22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2" t="n">
         <v>-0.34</v>
       </c>
-      <c r="H22" s="15" t="n">
-        <v>35635</v>
-      </c>
-      <c r="I22" s="16" t="n">
+      <c r="H22" s="22" t="n">
+        <v>35230</v>
+      </c>
+      <c r="I22" s="2" t="n">
         <v>30.45</v>
       </c>
-      <c r="J22" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" s="17" t="n">
+      <c r="J22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" s="23" t="n">
         <v>-0.07</v>
       </c>
+      <c r="L22" s="22" t="n">
+        <v>33535</v>
+      </c>
+      <c r="M22" s="2" t="n">
+        <v>31.63</v>
+      </c>
+      <c r="N22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" s="23" t="n">
+        <v>0.07</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="14" t="s">
-        <v>16</v>
+      <c r="B23" s="21" t="s">
+        <v>17</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="15" t="n">
+        <v>30</v>
+      </c>
+      <c r="D23" s="22" t="n">
         <v>11804</v>
       </c>
-      <c r="E23" s="16" t="n">
+      <c r="E23" s="2" t="n">
         <v>21.45</v>
       </c>
-      <c r="F23" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" s="15" t="n">
-        <v>5390</v>
-      </c>
-      <c r="I23" s="16" t="n">
+      <c r="F23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="22" t="n">
+        <v>5335</v>
+      </c>
+      <c r="I23" s="2" t="n">
         <v>26.5</v>
       </c>
-      <c r="J23" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" s="17" t="n">
+      <c r="J23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" s="22" t="n">
+        <v>5646</v>
+      </c>
+      <c r="M23" s="2" t="n">
+        <v>25.05</v>
+      </c>
+      <c r="N23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" s="23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="14" t="s">
-        <v>16</v>
+      <c r="B24" s="21" t="s">
+        <v>17</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="15" t="n">
+        <v>31</v>
+      </c>
+      <c r="D24" s="22" t="n">
         <v>50520</v>
       </c>
-      <c r="E24" s="16" t="n">
+      <c r="E24" s="2" t="n">
         <v>42.97</v>
       </c>
-      <c r="F24" s="16" t="n">
+      <c r="F24" s="2" t="n">
         <v>1.58</v>
       </c>
-      <c r="G24" s="16" t="n">
+      <c r="G24" s="2" t="n">
         <v>0.27</v>
       </c>
-      <c r="H24" s="15" t="n">
-        <v>26560</v>
-      </c>
-      <c r="I24" s="16" t="n">
+      <c r="H24" s="22" t="n">
+        <v>26515</v>
+      </c>
+      <c r="I24" s="2" t="n">
         <v>55.2</v>
       </c>
-      <c r="J24" s="16" t="n">
+      <c r="J24" s="2" t="n">
         <v>1.68</v>
       </c>
-      <c r="K24" s="17" t="n">
+      <c r="K24" s="23" t="n">
         <v>0.77</v>
       </c>
+      <c r="L24" s="22" t="n">
+        <v>28023</v>
+      </c>
+      <c r="M24" s="2" t="n">
+        <v>53.69</v>
+      </c>
+      <c r="N24" s="2" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="O24" s="23" t="n">
+        <v>0.77</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="14" t="s">
-        <v>16</v>
+      <c r="B25" s="21" t="s">
+        <v>17</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="15" t="n">
-        <v>110614</v>
-      </c>
-      <c r="E25" s="16" t="n">
+        <v>32</v>
+      </c>
+      <c r="D25" s="22" t="n">
+        <v>109044</v>
+      </c>
+      <c r="E25" s="2" t="n">
         <v>59.07</v>
       </c>
-      <c r="F25" s="16" t="n">
+      <c r="F25" s="2" t="n">
         <v>2.51</v>
       </c>
-      <c r="G25" s="16" t="n">
+      <c r="G25" s="2" t="n">
         <v>17.3</v>
       </c>
-      <c r="H25" s="15" t="n">
-        <v>44715</v>
-      </c>
-      <c r="I25" s="16" t="n">
+      <c r="H25" s="22" t="n">
+        <v>44350</v>
+      </c>
+      <c r="I25" s="2" t="n">
         <v>68.44</v>
       </c>
-      <c r="J25" s="16" t="n">
+      <c r="J25" s="2" t="n">
         <v>4.03</v>
       </c>
-      <c r="K25" s="17" t="n">
+      <c r="K25" s="23" t="n">
         <v>20.68</v>
       </c>
+      <c r="L25" s="22" t="n">
+        <v>46165</v>
+      </c>
+      <c r="M25" s="2" t="n">
+        <v>69.38</v>
+      </c>
+      <c r="N25" s="2" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="O25" s="23" t="n">
+        <v>22.74</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="20" t="n">
-        <v>378391</v>
-      </c>
-      <c r="E26" s="21" t="n">
+      <c r="B26" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="25"/>
+      <c r="D26" s="26" t="n">
+        <f aca="false">SUM(D11:D25)</f>
+        <v>374719</v>
+      </c>
+      <c r="E26" s="27" t="n">
         <v>42.09</v>
       </c>
-      <c r="F26" s="21" t="n">
+      <c r="F26" s="27" t="n">
         <v>1.75</v>
       </c>
-      <c r="G26" s="21" t="n">
+      <c r="G26" s="27" t="n">
         <v>5.81</v>
       </c>
-      <c r="H26" s="20" t="n">
-        <v>167970</v>
-      </c>
-      <c r="I26" s="21" t="n">
+      <c r="H26" s="26" t="n">
+        <f aca="false">SUM(H11:H25)</f>
+        <v>166620</v>
+      </c>
+      <c r="I26" s="27" t="n">
         <v>50.64</v>
       </c>
-      <c r="J26" s="21" t="n">
+      <c r="J26" s="27" t="n">
         <v>2.37</v>
       </c>
-      <c r="K26" s="22" t="n">
+      <c r="K26" s="28" t="n">
         <v>6.42</v>
       </c>
+      <c r="L26" s="26" t="n">
+        <f aca="false">SUM(L11:L25)</f>
+        <v>164655</v>
+      </c>
+      <c r="M26" s="29" t="n">
+        <v>52.93</v>
+      </c>
+      <c r="N26" s="29" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="O26" s="28" t="n">
+        <v>7.29</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="27" t="s">
+      <c r="B27" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="28" t="n">
+      <c r="C27" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="35" t="n">
         <v>1613523</v>
       </c>
-      <c r="E27" s="29" t="n">
+      <c r="E27" s="36" t="n">
         <v>51.34</v>
       </c>
-      <c r="F27" s="29" t="n">
+      <c r="F27" s="36" t="n">
         <v>12.15</v>
       </c>
-      <c r="G27" s="29" t="n">
+      <c r="G27" s="36" t="n">
         <v>16.95</v>
       </c>
-      <c r="H27" s="28" t="n">
+      <c r="H27" s="35" t="n">
         <v>689430</v>
       </c>
-      <c r="I27" s="29" t="n">
+      <c r="I27" s="36" t="n">
         <v>64.3</v>
       </c>
-      <c r="J27" s="29" t="n">
+      <c r="J27" s="36" t="n">
         <v>16.92</v>
       </c>
-      <c r="K27" s="30" t="n">
+      <c r="K27" s="37" t="n">
         <v>21.7</v>
       </c>
+      <c r="L27" s="35" t="n">
+        <f aca="false">L26+L10</f>
+        <v>719884</v>
+      </c>
+      <c r="M27" s="36" t="n">
+        <v>66.15</v>
+      </c>
+      <c r="N27" s="36" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="O27" s="37" t="n">
+        <v>24.35</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="H2:K2"/>
+    <mergeCell ref="L2:O2"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1367,11 +1711,11 @@
   </sheetPr>
   <dimension ref="B1:J23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.65"/>
@@ -1381,42 +1725,42 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="38.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1" s="31"/>
-      <c r="C1" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="10" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="D1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>35</v>
+      <c r="E1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="32" t="n">
+      <c r="B2" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="1" t="n">
         <v>689015</v>
       </c>
-      <c r="D2" s="16" t="n">
+      <c r="D2" s="2" t="n">
         <v>64.31</v>
       </c>
-      <c r="E2" s="16" t="n">
+      <c r="E2" s="2" t="n">
         <v>16.92</v>
       </c>
-      <c r="F2" s="16" t="n">
+      <c r="F2" s="2" t="n">
         <v>21.7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="32" t="n">
+      <c r="B3" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="1" t="n">
         <v>252745</v>
       </c>
       <c r="D3" s="0" t="n">
@@ -1430,10 +1774,10 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="32" t="n">
+      <c r="B4" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="1" t="n">
         <v>32040</v>
       </c>
       <c r="D4" s="0" t="n">
@@ -1447,10 +1791,10 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="32" t="n">
+      <c r="B5" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="1" t="n">
         <v>103205</v>
       </c>
       <c r="D5" s="0" t="n">
@@ -1464,10 +1808,10 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="32" t="n">
+      <c r="B6" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="1" t="n">
         <v>17960</v>
       </c>
       <c r="D6" s="0" t="n">
@@ -1481,10 +1825,10 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="32" t="n">
+      <c r="B7" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="1" t="n">
         <v>33860</v>
       </c>
       <c r="D7" s="0" t="n">
@@ -1498,10 +1842,10 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="32" t="n">
+      <c r="B8" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="1" t="n">
         <v>243780</v>
       </c>
       <c r="D8" s="0" t="n">
@@ -1515,288 +1859,288 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="31" t="s">
-        <v>43</v>
+      <c r="B9" s="38" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="23.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="33" t="s">
+      <c r="C14" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="E14" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="33" t="s">
+      <c r="F14" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="G14" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="I14" s="33" t="s">
+      <c r="H14" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="J14" s="8"/>
+      <c r="I14" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="J14" s="12"/>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="34" t="n">
+      <c r="B15" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="40" t="n">
         <v>689015</v>
       </c>
-      <c r="D15" s="35" t="n">
+      <c r="D15" s="41" t="n">
         <f aca="false">C15*D2/100</f>
         <v>443105.5465</v>
       </c>
-      <c r="E15" s="32" t="n">
+      <c r="E15" s="1" t="n">
         <f aca="false">C15-D15</f>
         <v>245909.4535</v>
       </c>
-      <c r="F15" s="35" t="n">
+      <c r="F15" s="41" t="n">
         <f aca="false">C15*E2/100</f>
         <v>116581.338</v>
       </c>
-      <c r="G15" s="32" t="n">
+      <c r="G15" s="1" t="n">
         <f aca="false">C15-F15</f>
         <v>572433.662</v>
       </c>
-      <c r="H15" s="35" t="n">
+      <c r="H15" s="41" t="n">
         <f aca="false">C2*F2/100</f>
         <v>149516.255</v>
       </c>
-      <c r="I15" s="32" t="n">
+      <c r="I15" s="1" t="n">
         <f aca="false">C15-H15</f>
         <v>539498.745</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="36" t="n">
+      <c r="B16" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="42" t="n">
         <v>1</v>
       </c>
-      <c r="E16" s="36" t="n">
+      <c r="E16" s="42" t="n">
         <v>1</v>
       </c>
-      <c r="F16" s="36" t="n">
+      <c r="F16" s="42" t="n">
         <v>1</v>
       </c>
-      <c r="G16" s="36" t="n">
+      <c r="G16" s="42" t="n">
         <v>1</v>
       </c>
-      <c r="H16" s="36" t="n">
+      <c r="H16" s="42" t="n">
         <v>1</v>
       </c>
-      <c r="I16" s="36" t="n">
+      <c r="I16" s="42" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="37" t="n">
+      <c r="B17" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="43" t="n">
         <f aca="false">(C3*D3/100) / D$15</f>
         <v>0.21538099162566</v>
       </c>
-      <c r="E17" s="37" t="n">
+      <c r="E17" s="43" t="n">
         <f aca="false">(C3*(100-D3)/100) / E$15</f>
         <v>0.639700856396722</v>
       </c>
-      <c r="F17" s="37" t="n">
+      <c r="F17" s="43" t="n">
         <f aca="false">(C3*E3/100) / F$15</f>
         <v>0.000216797134374972</v>
       </c>
-      <c r="G17" s="37" t="n">
+      <c r="G17" s="43" t="n">
         <f aca="false">(C3*(100-E3)/100) / G$15</f>
         <v>0.441482991438753</v>
       </c>
-      <c r="H17" s="37" t="n">
+      <c r="H17" s="43" t="n">
         <f aca="false">(C3*F3/100) / H$15</f>
         <v>0.0393867442707149</v>
       </c>
-      <c r="I17" s="37" t="n">
+      <c r="I17" s="43" t="n">
         <f aca="false">(C3*(100-F3)/100) / I$15</f>
         <v>0.457565552816995</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="37" t="n">
+      <c r="B18" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="43" t="n">
         <f aca="false">(C4*D4/100) / D$15</f>
         <v>0.0325023690489959</v>
       </c>
-      <c r="E18" s="37" t="n">
+      <c r="E18" s="43" t="n">
         <f aca="false">(C4*(100-D4)/100) / E$15</f>
         <v>0.0717256687327801</v>
       </c>
-      <c r="F18" s="37" t="n">
+      <c r="F18" s="43" t="n">
         <f aca="false">(C4*E4/100) / F$15</f>
         <v>0.000797005778060293</v>
       </c>
-      <c r="G18" s="37" t="n">
+      <c r="G18" s="43" t="n">
         <f aca="false">(C4*(100-E4)/100) / G$15</f>
         <v>0.055809233664529</v>
       </c>
-      <c r="H18" s="37" t="n">
+      <c r="H18" s="43" t="n">
         <f aca="false">(C4*F4/100) / H$15</f>
         <v>0.0176147269071179</v>
       </c>
-      <c r="I18" s="37" t="n">
+      <c r="I18" s="43" t="n">
         <f aca="false">(C4*(100-F4)/100) / I$15</f>
         <v>0.0545067292047176</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="37" t="n">
+      <c r="B19" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="43" t="n">
         <f aca="false">(C5*D5/100) / D$15</f>
         <v>0.129057040589312</v>
       </c>
-      <c r="E19" s="37" t="n">
+      <c r="E19" s="43" t="n">
         <f aca="false">(C5*(100-D5)/100) / E$15</f>
         <v>0.18713843182934</v>
       </c>
-      <c r="F19" s="37" t="n">
+      <c r="F19" s="43" t="n">
         <f aca="false">(C5*E5/100) / F$15</f>
         <v>0.00495746583385413</v>
       </c>
-      <c r="G19" s="37" t="n">
+      <c r="G19" s="43" t="n">
         <f aca="false">(C5*(100-E5)/100) / G$15</f>
         <v>0.17928200036566</v>
       </c>
-      <c r="H19" s="37" t="n">
+      <c r="H19" s="43" t="n">
         <f aca="false">(C5*F5/100) / H$15</f>
         <v>0.0557039333281856</v>
       </c>
-      <c r="I19" s="37" t="n">
+      <c r="I19" s="43" t="n">
         <f aca="false">(C5*(100-F5)/100) / I$15</f>
         <v>0.175860198710935</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="37" t="n">
+      <c r="B20" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="43" t="n">
         <f aca="false">(C6*D6/100) / D$15</f>
         <v>0.030869250245325</v>
       </c>
-      <c r="E20" s="37" t="n">
+      <c r="E20" s="43" t="n">
         <f aca="false">(C6*(100-D6)/100) / E$15</f>
         <v>0.0174115469700721</v>
       </c>
-      <c r="F20" s="37" t="n">
+      <c r="F20" s="43" t="n">
         <f aca="false">(C6*E6/100) / F$15</f>
         <v>0.00611600460444192</v>
       </c>
-      <c r="G20" s="37" t="n">
+      <c r="G20" s="43" t="n">
         <f aca="false">(C6*(100-E6)/100) / G$15</f>
         <v>0.0301292344334565</v>
       </c>
-      <c r="H20" s="37" t="n">
+      <c r="H20" s="43" t="n">
         <f aca="false">(C6*F6/100) / H$15</f>
         <v>0.0159400193644497</v>
       </c>
-      <c r="I20" s="37" t="n">
+      <c r="I20" s="43" t="n">
         <f aca="false">(C6*(100-F6)/100) / I$15</f>
         <v>0.0288725565061324</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="37" t="n">
+      <c r="B21" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="43" t="n">
         <f aca="false">(C7*D7/100) / D$15</f>
         <v>0.0604673496227608</v>
       </c>
-      <c r="E21" s="37" t="n">
+      <c r="E21" s="43" t="n">
         <f aca="false">(C7*(100-D7)/100) / E$15</f>
         <v>0.0287365202899774</v>
       </c>
-      <c r="F21" s="37" t="n">
+      <c r="F21" s="43" t="n">
         <f aca="false">(C7*E7/100) / F$15</f>
         <v>0.0117919044641605</v>
       </c>
-      <c r="G21" s="37" t="n">
+      <c r="G21" s="43" t="n">
         <f aca="false">(C7*(100-E7)/100) / G$15</f>
         <v>0.0567494299452991</v>
       </c>
-      <c r="H21" s="37" t="n">
+      <c r="H21" s="43" t="n">
         <f aca="false">(C7*F7/100) / H$15</f>
         <v>0.0119799282024553</v>
       </c>
-      <c r="I21" s="37" t="n">
+      <c r="I21" s="43" t="n">
         <f aca="false">(C7*(100-F7)/100) / I$15</f>
         <v>0.0594418546793839</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="37" t="n">
+      <c r="B22" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="43" t="n">
         <f aca="false">(C8*D8/100) / D$15</f>
         <v>0.521498915608812</v>
       </c>
-      <c r="E22" s="37" t="n">
+      <c r="E22" s="43" t="n">
         <f aca="false">(C8*(100-D8)/100) / E$15</f>
         <v>0.0516488399255459</v>
       </c>
-      <c r="F22" s="37" t="n">
+      <c r="F22" s="43" t="n">
         <f aca="false">(C8*E8/100) / F$15</f>
         <v>0.974648772687787</v>
       </c>
-      <c r="G22" s="37" t="n">
+      <c r="G22" s="43" t="n">
         <f aca="false">(C8*(100-E8)/100) / G$15</f>
         <v>0.227369825780791</v>
       </c>
-      <c r="H22" s="37" t="n">
+      <c r="H22" s="43" t="n">
         <f aca="false">(C8*F8/100) / H$15</f>
         <v>0.853544853701693</v>
       </c>
-      <c r="I22" s="37" t="n">
+      <c r="I22" s="43" t="n">
         <f aca="false">(C8*(100-F8)/100) / I$15</f>
         <v>0.215313142202027</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="36" t="n">
+      <c r="B23" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="42" t="n">
         <f aca="false">D16-SUM(D17:D22)</f>
         <v>0.0102240832591338</v>
       </c>
-      <c r="E23" s="36" t="n">
+      <c r="E23" s="42" t="n">
         <f aca="false">E16-SUM(E17:E22)</f>
         <v>0.00363813585556205</v>
       </c>
-      <c r="F23" s="36" t="n">
+      <c r="F23" s="42" t="n">
         <f aca="false">F16-SUM(F17:F22)</f>
         <v>0.00147204949732171</v>
       </c>
-      <c r="G23" s="36" t="n">
+      <c r="G23" s="42" t="n">
         <f aca="false">G16-SUM(G17:G22)</f>
         <v>0.00917728437151211</v>
       </c>
-      <c r="H23" s="36" t="n">
+      <c r="H23" s="42" t="n">
         <f aca="false">H16-SUM(H17:H22)</f>
         <v>0.00582979422538366</v>
       </c>
-      <c r="I23" s="36" t="n">
+      <c r="I23" s="42" t="n">
         <f aca="false">I16-SUM(I17:I22)</f>
         <v>0.00843996587980933</v>
       </c>
